--- a/dataflow_examples.xlsx
+++ b/dataflow_examples.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12647"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>IFMAP row</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +40,114 @@
   </si>
   <si>
     <t>Ifrow needed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input tensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">weight tensor </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partial sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb*Xb*Tw*Tch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alxconv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alxconv1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wb*S*S*Tch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tb*Tw*Th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last offst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +196,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -100,11 +233,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -387,16 +526,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="21" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>0</v>
       </c>
@@ -461,7 +600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -524,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>C4+14</f>
         <v>9</v>
@@ -585,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>C5+14</f>
         <v>23</v>
@@ -646,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>C6+14</f>
         <v>37</v>
@@ -719,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T8">
         <f>T7+1</f>
         <v>1</v>
@@ -737,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -770,7 +909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>4</v>
       </c>
@@ -797,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>7</v>
       </c>
@@ -827,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>11</v>
       </c>
@@ -854,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T13">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -872,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="T14">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -886,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>7</v>
       </c>
@@ -924,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E16" s="3">
         <v>11</v>
       </c>
@@ -956,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="20:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T17">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -970,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="20:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T18">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -984,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="20:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T19">
         <f t="shared" si="6"/>
         <v>12</v>
@@ -998,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="20:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T20">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -1012,10 +1151,327 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="20:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="20:22" x14ac:dyDescent="0.25">
       <c r="T21">
         <f>T20+1</f>
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>2048</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:L10" si="0">I3+4</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <f>4*2*13*4</f>
+        <v>416</v>
+      </c>
+      <c r="D17">
+        <f>2*3*3*4</f>
+        <v>72</v>
+      </c>
+      <c r="E17">
+        <f>4*13*13</f>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <f>2*2*65*2</f>
+        <v>520</v>
+      </c>
+      <c r="D18">
+        <f>11*11*2</f>
+        <v>242</v>
+      </c>
+      <c r="E18">
+        <f>55*16*2</f>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>416</v>
+      </c>
+      <c r="D21">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>676</v>
+      </c>
+      <c r="F21">
+        <f>C21+D21+E21</f>
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>512</v>
+      </c>
+      <c r="D22">
+        <v>242</v>
+      </c>
+      <c r="F22">
+        <f>C22+D22+E22</f>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
